--- a/NEW HR/AMBROCIO, MELODY.xlsx
+++ b/NEW HR/AMBROCIO, MELODY.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>SOLO P (4-0-0)</t>
+  </si>
+  <si>
+    <t>5/2-5/2023</t>
   </si>
 </sst>
 </file>
@@ -631,14 +637,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -648,9 +657,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1187,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1230,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1294,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1354,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1420,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1483,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1581,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1640,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1705,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1748,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1823,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2009,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2075,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2133,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2199,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2255,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2330,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2373,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2439,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2495,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2585,7 +2591,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K132" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K131" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -2962,12 +2968,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A51" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,14 +3003,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3015,14 +3021,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3035,16 +3041,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3070,18 +3076,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3128,7 +3134,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55.25</v>
+        <v>55</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3138,7 +3144,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>80</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4263,16 +4269,20 @@
       <c r="J64" s="11"/>
       <c r="K64" s="49"/>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>44620</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4281,7 +4291,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -4297,11 +4307,11 @@
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="49"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4321,7 +4331,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4341,7 +4351,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4361,7 +4371,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4381,7 +4391,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4401,7 +4411,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4421,7 +4431,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4441,13 +4451,17 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44865</v>
-      </c>
-      <c r="B74" s="20"/>
+        <v>44895</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>1</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -4457,20 +4471,22 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="20"/>
+      <c r="K74" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
       <c r="D75" s="39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
@@ -4481,24 +4497,20 @@
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20" t="s">
-        <v>67</v>
-      </c>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>44926</v>
+      <c r="A76" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4506,17 +4518,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="48" t="s">
-        <v>68</v>
+      <c r="A77" s="40">
+        <v>44957</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4525,7 +4539,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>44957</v>
+        <v>44958</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4544,15 +4558,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>44986</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4560,15 +4578,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45017</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4576,7 +4598,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45047</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -5376,50 +5400,34 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
+      <c r="A131" s="41"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="43"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="43"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5454,10 +5462,10 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5487,14 +5495,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5505,14 +5513,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5525,16 +5533,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5560,18 +5568,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6182,8 +6190,12 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
@@ -6195,7 +6207,9 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
+      <c r="K35" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>

--- a/NEW HR/AMBROCIO, MELODY.xlsx
+++ b/NEW HR/AMBROCIO, MELODY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>5/2-5/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>PARENTAL 5/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +2976,7 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
       <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
@@ -5462,10 +5468,10 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A22" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A23" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5636,7 +5642,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>60.832999999999998</v>
+        <v>59.832999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6213,7 +6219,9 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
-      <c r="B36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39"/>
       <c r="E36" s="9"/>
@@ -6225,11 +6233,17 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
+      <c r="K36" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C37" s="13"/>
       <c r="D37" s="39"/>
       <c r="E37" s="9"/>
@@ -6238,10 +6252,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H37" s="39"/>
+      <c r="H37" s="39">
+        <v>1</v>
+      </c>
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="20"/>
+      <c r="K37" s="49">
+        <v>45078</v>
+      </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
@@ -7057,7 +7075,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>

--- a/NEW HR/AMBROCIO, MELODY.xlsx
+++ b/NEW HR/AMBROCIO, MELODY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -643,17 +643,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -663,6 +660,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,7 +1193,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1236,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1360,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1489,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1587,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1646,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1711,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1754,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1829,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2015,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2081,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2139,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2205,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2261,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2336,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2379,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2445,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2501,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2979,7 +2979,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,14 +3009,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3027,14 +3027,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3047,16 +3047,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3082,18 +3082,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>55</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3150,7 +3150,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>80</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4608,13 +4608,15 @@
         <v>45047</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4622,20 +4624,28 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="A82" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49">
+        <v>45118</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
@@ -5423,17 +5433,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5501,14 +5511,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5519,14 +5529,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5539,16 +5549,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5574,18 +5584,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/AMBROCIO, MELODY.xlsx
+++ b/NEW HR/AMBROCIO, MELODY.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>PARENTAL 5/23,24/2023</t>
+  </si>
+  <si>
+    <t>7/18,20/2023</t>
   </si>
 </sst>
 </file>
@@ -643,14 +646,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -660,9 +666,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1193,7 +1196,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1236,7 +1239,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1303,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1360,7 +1363,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1429,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,7 +1492,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1590,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1649,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +1714,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1757,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1832,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2015,7 +2018,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2081,7 +2084,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2142,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2208,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2261,7 +2264,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2336,7 +2339,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2382,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2448,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2501,7 +2504,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,10 +2979,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="C82" sqref="C82:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,14 +3012,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3027,14 +3030,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3047,16 +3050,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3082,18 +3085,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3140,7 +3143,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3150,7 +3153,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4650,13 +4653,15 @@
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -5433,17 +5438,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5478,10 +5483,10 @@
   </sheetPr>
   <dimension ref="A2:K87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A23" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43:C44"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A23"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5511,14 +5516,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5529,14 +5534,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5549,16 +5554,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5584,18 +5589,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5652,7 +5657,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.832999999999998</v>
+        <v>56.832999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6272,8 +6277,12 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39"/>
       <c r="E38" s="9"/>
@@ -6282,14 +6291,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H38" s="39"/>
+      <c r="H38" s="39">
+        <v>1</v>
+      </c>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="20"/>
+      <c r="K38" s="49">
+        <v>45119</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39"/>
       <c r="E39" s="9"/>
@@ -6298,10 +6313,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H39" s="39"/>
+      <c r="H39" s="39">
+        <v>2</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="20"/>
+      <c r="K39" s="20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>

--- a/NEW HR/AMBROCIO, MELODY.xlsx
+++ b/NEW HR/AMBROCIO, MELODY.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,6 +259,24 @@
   </si>
   <si>
     <t>7/18,20/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>7/27,28,31, 8/1/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>8/2-11/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>9/19-20/2023</t>
   </si>
 </sst>
 </file>
@@ -646,17 +664,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -666,6 +681,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,7 +1214,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1239,7 +1257,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1303,7 +1321,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1381,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1447,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1510,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1608,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1649,7 +1667,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,7 +1732,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1757,7 +1775,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1850,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2036,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2084,7 +2102,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2160,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2226,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2264,7 +2282,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2357,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2400,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2466,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2504,7 +2522,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2982,7 +3000,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
       <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="C82" sqref="C82:C83"/>
+      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,14 +3030,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3030,14 +3048,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3050,16 +3068,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3085,18 +3103,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3143,7 +3161,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3153,7 +3171,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4651,7 +4669,9 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45108</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -4669,15 +4689,19 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45139</v>
+      </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4685,23 +4709,33 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="A85" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49">
+        <v>45173</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45200</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4717,7 +4751,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45231</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4733,7 +4769,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45261</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5438,17 +5476,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5484,9 +5522,9 @@
   <dimension ref="A2:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A23"/>
+      <pane ySplit="3690" topLeftCell="A20" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,14 +5554,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5534,14 +5572,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5554,16 +5592,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5589,18 +5627,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5647,7 +5685,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>49.832999999999998</v>
+        <v>40.832999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5657,7 +5695,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>56.832999999999998</v>
+        <v>50.832999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6324,7 +6362,9 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C40" s="13"/>
       <c r="D40" s="39"/>
       <c r="E40" s="9"/>
@@ -6333,16 +6373,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H40" s="39"/>
+      <c r="H40" s="39">
+        <v>4</v>
+      </c>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="20"/>
+      <c r="K40" s="20" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
-      <c r="B41" s="20"/>
+      <c r="B41" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="39"/>
+      <c r="D41" s="39">
+        <v>8</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13" t="str">
@@ -6352,13 +6400,21 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="20"/>
+      <c r="K41" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C42" s="13"/>
-      <c r="D42" s="39"/>
+      <c r="D42" s="39">
+        <v>1</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -6368,11 +6424,15 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="20"/>
+      <c r="K42" s="49">
+        <v>45191</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
@@ -6381,10 +6441,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="39">
+        <v>2</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
